--- a/data/out/tb_wc_uefa.xlsx
+++ b/data/out/tb_wc_uefa.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>tournament_name</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -476,10 +476,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1986</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -508,10 +506,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1986</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -540,10 +536,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A4" t="n">
+        <v>1986</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -572,10 +566,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1986</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -604,10 +596,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A6" t="n">
+        <v>1986</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -620,10 +610,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -632,14 +622,12 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A7" t="n">
+        <v>1986</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -668,10 +656,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A8" t="n">
+        <v>1986</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -684,10 +670,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -700,10 +686,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A9" t="n">
+        <v>1986</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -732,10 +716,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A10" t="n">
+        <v>1986</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -764,10 +746,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A11" t="n">
+        <v>1986</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -796,10 +776,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A12" t="n">
+        <v>1986</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -828,10 +806,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A13" t="n">
+        <v>1986</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -860,10 +836,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A14" t="n">
+        <v>1986</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -892,10 +866,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A15" t="n">
+        <v>1986</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -924,10 +896,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A16" t="n">
+        <v>1986</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -956,10 +926,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A17" t="n">
+        <v>1986</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -988,10 +956,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A18" t="n">
+        <v>1986</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1020,10 +986,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A19" t="n">
+        <v>1986</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1052,10 +1016,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A20" t="n">
+        <v>1986</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1084,10 +1046,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A21" t="n">
+        <v>1986</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1116,10 +1076,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A22" t="n">
+        <v>1986</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1148,10 +1106,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A23" t="n">
+        <v>1986</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1180,10 +1136,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1986 FIFA World Cup</t>
-        </is>
+      <c r="A24" t="n">
+        <v>1986</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1212,10 +1166,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A25" t="n">
+        <v>1990</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1244,10 +1196,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A26" t="n">
+        <v>1990</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1276,10 +1226,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A27" t="n">
+        <v>1990</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1308,10 +1256,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A28" t="n">
+        <v>1990</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1340,10 +1286,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A29" t="n">
+        <v>1990</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1372,10 +1316,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A30" t="n">
+        <v>1990</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1404,10 +1346,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A31" t="n">
+        <v>1990</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1436,10 +1376,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A32" t="n">
+        <v>1990</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1468,10 +1406,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A33" t="n">
+        <v>1990</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1500,10 +1436,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A34" t="n">
+        <v>1990</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1532,10 +1466,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A35" t="n">
+        <v>1990</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1564,10 +1496,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A36" t="n">
+        <v>1990</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1596,10 +1526,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A37" t="n">
+        <v>1990</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1628,10 +1556,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A38" t="n">
+        <v>1990</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1660,10 +1586,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A39" t="n">
+        <v>1990</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1692,10 +1616,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A40" t="n">
+        <v>1990</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1724,10 +1646,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A41" t="n">
+        <v>1990</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1756,10 +1676,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A42" t="n">
+        <v>1990</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1788,10 +1706,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A43" t="n">
+        <v>1990</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1820,10 +1736,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A44" t="n">
+        <v>1990</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1852,10 +1766,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A45" t="n">
+        <v>1990</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1884,10 +1796,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A46" t="n">
+        <v>1990</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1916,10 +1826,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A47" t="n">
+        <v>1990</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1948,10 +1856,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1990 FIFA World Cup</t>
-        </is>
+      <c r="A48" t="n">
+        <v>1990</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1980,10 +1886,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A49" t="n">
+        <v>1994</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1999,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2008,14 +1912,12 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A50" t="n">
+        <v>1994</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2044,10 +1946,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A51" t="n">
+        <v>1994</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2076,10 +1976,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A52" t="n">
+        <v>1994</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2108,10 +2006,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A53" t="n">
+        <v>1994</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2140,10 +2036,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A54" t="n">
+        <v>1994</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2172,10 +2066,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A55" t="n">
+        <v>1994</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2204,10 +2096,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A56" t="n">
+        <v>1994</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2236,10 +2126,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A57" t="n">
+        <v>1994</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2268,10 +2156,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A58" t="n">
+        <v>1994</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2300,10 +2186,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A59" t="n">
+        <v>1994</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2332,10 +2216,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A60" t="n">
+        <v>1994</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2364,10 +2246,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A61" t="n">
+        <v>1994</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2396,10 +2276,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A62" t="n">
+        <v>1994</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2428,10 +2306,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A63" t="n">
+        <v>1994</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2460,10 +2336,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A64" t="n">
+        <v>1994</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2492,10 +2366,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A65" t="n">
+        <v>1994</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2524,10 +2396,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A66" t="n">
+        <v>1994</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2556,10 +2426,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A67" t="n">
+        <v>1994</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2588,10 +2456,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A68" t="n">
+        <v>1994</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2620,10 +2486,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A69" t="n">
+        <v>1994</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2652,10 +2516,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A70" t="n">
+        <v>1994</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2684,10 +2546,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A71" t="n">
+        <v>1994</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2716,10 +2576,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>1994 FIFA World Cup</t>
-        </is>
+      <c r="A72" t="n">
+        <v>1994</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2748,10 +2606,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A73" t="n">
+        <v>1998</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2780,10 +2636,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A74" t="n">
+        <v>1998</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2792,62 +2646,58 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A76" t="n">
+        <v>1998</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2876,10 +2726,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A77" t="n">
+        <v>1998</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2892,10 +2740,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2904,14 +2752,12 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A78" t="n">
+        <v>1998</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2924,10 +2770,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2936,14 +2782,12 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A79" t="n">
+        <v>1998</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2962,20 +2806,18 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A80" t="n">
+        <v>1998</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2997,17 +2839,15 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A81" t="n">
+        <v>1998</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3036,10 +2876,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A82" t="n">
+        <v>1998</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3055,23 +2893,21 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A83" t="n">
+        <v>1998</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3087,23 +2923,21 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A84" t="n">
+        <v>1998</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3132,10 +2966,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A85" t="n">
+        <v>1998</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3148,10 +2980,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3160,14 +2992,12 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A86" t="n">
+        <v>1998</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3180,10 +3010,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3192,14 +3022,12 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A87" t="n">
+        <v>1998</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3228,10 +3056,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A88" t="n">
+        <v>1998</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3260,10 +3086,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A89" t="n">
+        <v>1998</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3292,10 +3116,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A90" t="n">
+        <v>1998</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3324,10 +3146,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A91" t="n">
+        <v>1998</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3356,10 +3176,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A92" t="n">
+        <v>1998</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3388,10 +3206,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A93" t="n">
+        <v>1998</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3420,10 +3236,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A94" t="n">
+        <v>1998</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3452,10 +3266,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A95" t="n">
+        <v>1998</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3484,10 +3296,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A96" t="n">
+        <v>1998</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3516,10 +3326,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A97" t="n">
+        <v>1998</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3548,10 +3356,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A98" t="n">
+        <v>1998</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3570,20 +3376,18 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A99" t="n">
+        <v>1998</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3602,20 +3406,18 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A100" t="n">
+        <v>1998</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3644,10 +3446,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A101" t="n">
+        <v>1998</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3676,10 +3476,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A102" t="n">
+        <v>1998</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3708,10 +3506,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>1998 FIFA World Cup</t>
-        </is>
+      <c r="A103" t="n">
+        <v>1998</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3740,10 +3536,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
+      <c r="A104" t="n">
+        <v>2002</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3772,10 +3566,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
+      <c r="A105" t="n">
+        <v>2002</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3804,10 +3596,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
+      <c r="A106" t="n">
+        <v>2002</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3836,10 +3626,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
+      <c r="A107" t="n">
+        <v>2002</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3868,10 +3656,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
+      <c r="A108" t="n">
+        <v>2002</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3900,10 +3686,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
+      <c r="A109" t="n">
+        <v>2002</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3912,68 +3696,64 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>South Africa</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Group B</t>
-        </is>
-      </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -3996,10 +3776,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
+      <c r="A112" t="n">
+        <v>2002</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4028,10 +3806,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
+      <c r="A113" t="n">
+        <v>2002</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4047,770 +3823,722 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2002 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
@@ -4828,10 +4556,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A138" t="n">
+        <v>2006</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4860,10 +4586,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A139" t="n">
+        <v>2006</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4892,10 +4616,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A140" t="n">
+        <v>2006</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4904,100 +4626,94 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Group B</t>
-        </is>
-      </c>
       <c r="C143" t="inlineStr">
         <is>
           <t>Trinidad and Tobago</t>
@@ -5013,17 +4729,15 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A144" t="n">
+        <v>2006</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5052,10 +4766,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A145" t="n">
+        <v>2006</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5084,10 +4796,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A146" t="n">
+        <v>2006</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5116,10 +4826,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A147" t="n">
+        <v>2006</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5148,10 +4856,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A148" t="n">
+        <v>2006</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5180,10 +4886,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A149" t="n">
+        <v>2006</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5199,23 +4903,21 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A150" t="n">
+        <v>2006</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5231,23 +4933,21 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A151" t="n">
+        <v>2006</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5276,10 +4976,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A152" t="n">
+        <v>2006</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5308,10 +5006,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A153" t="n">
+        <v>2006</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5340,10 +5036,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A154" t="n">
+        <v>2006</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5372,10 +5066,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A155" t="n">
+        <v>2006</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5404,10 +5096,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A156" t="n">
+        <v>2006</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5436,10 +5126,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A157" t="n">
+        <v>2006</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5458,20 +5146,18 @@
         <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A158" t="n">
+        <v>2006</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5500,10 +5186,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A159" t="n">
+        <v>2006</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5519,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -5528,14 +5212,12 @@
         <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A160" t="n">
+        <v>2006</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5564,10 +5246,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A161" t="n">
+        <v>2006</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5596,10 +5276,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A162" t="n">
+        <v>2006</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5628,10 +5306,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A163" t="n">
+        <v>2006</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5660,10 +5336,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A164" t="n">
+        <v>2006</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -5692,10 +5366,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A165" t="n">
+        <v>2006</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5724,10 +5396,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A166" t="n">
+        <v>2006</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5756,10 +5426,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2006 FIFA World Cup</t>
-        </is>
+      <c r="A167" t="n">
+        <v>2006</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5788,10 +5456,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
+      <c r="A168" t="n">
+        <v>2010</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5820,10 +5486,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
+      <c r="A169" t="n">
+        <v>2010</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5832,1252 +5496,1174 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
           <t>Mexico</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B171" t="inlineStr">
         <is>
           <t>Group A</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>North Korea</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B200" t="inlineStr">
         <is>
           <t>Group A</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>1</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B204" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B205" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B206" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B207" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" t="n">
-        <v>1</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B208" t="inlineStr">
         <is>
           <t>Group C</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" t="n">
-        <v>1</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" t="n">
-        <v>1</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Ivory Coast</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>North Korea</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>0</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>0</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2010 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Group B</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>0</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Group B</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Group B</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Group B</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0</v>
-      </c>
-      <c r="G207" t="n">
-        <v>1</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
       <c r="C208" t="inlineStr">
         <is>
           <t>Colombia</t>
@@ -7100,10 +6686,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A209" t="n">
+        <v>2014</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7132,10 +6716,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A210" t="n">
+        <v>2014</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7164,10 +6746,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A211" t="n">
+        <v>2014</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7196,10 +6776,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A212" t="n">
+        <v>2014</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7228,10 +6806,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A213" t="n">
+        <v>2014</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7260,10 +6836,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A214" t="n">
+        <v>2014</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7292,10 +6866,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A215" t="n">
+        <v>2014</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7324,10 +6896,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A216" t="n">
+        <v>2014</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7356,10 +6926,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A217" t="n">
+        <v>2014</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7388,10 +6956,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A218" t="n">
+        <v>2014</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7420,10 +6986,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A219" t="n">
+        <v>2014</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7452,10 +7016,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A220" t="n">
+        <v>2014</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -7468,10 +7030,10 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -7480,14 +7042,12 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A221" t="n">
+        <v>2014</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -7496,68 +7056,64 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>0</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B223" t="inlineStr">
         <is>
           <t>Group F</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>0</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
       <c r="C223" t="inlineStr">
         <is>
           <t>Iran</t>
@@ -7580,10 +7136,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A224" t="n">
+        <v>2014</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -7612,10 +7166,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A225" t="n">
+        <v>2014</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -7624,68 +7176,64 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B227" t="inlineStr">
         <is>
           <t>Group G</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D226" t="n">
-        <v>0</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
       <c r="C227" t="inlineStr">
         <is>
           <t>Ghana</t>
@@ -7708,10 +7256,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A228" t="n">
+        <v>2014</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -7740,10 +7286,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A229" t="n">
+        <v>2014</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -7772,10 +7316,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A230" t="n">
+        <v>2014</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -7804,10 +7346,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>2014 FIFA World Cup</t>
-        </is>
+      <c r="A231" t="n">
+        <v>2014</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7836,10 +7376,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A232" t="n">
+        <v>2018</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -7868,10 +7406,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A233" t="n">
+        <v>2018</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -7900,10 +7436,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A234" t="n">
+        <v>2018</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -7932,10 +7466,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A235" t="n">
+        <v>2018</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7964,10 +7496,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A236" t="n">
+        <v>2018</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7983,23 +7513,21 @@
         <v>2</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A237" t="n">
+        <v>2018</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -8028,10 +7556,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A238" t="n">
+        <v>2018</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -8047,23 +7573,21 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A239" t="n">
+        <v>2018</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -8092,10 +7616,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A240" t="n">
+        <v>2018</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -8124,10 +7646,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A241" t="n">
+        <v>2018</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -8156,10 +7676,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A242" t="n">
+        <v>2018</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -8188,10 +7706,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A243" t="n">
+        <v>2018</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -8220,10 +7736,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A244" t="n">
+        <v>2018</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -8252,10 +7766,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A245" t="n">
+        <v>2018</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -8284,10 +7796,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A246" t="n">
+        <v>2018</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -8316,10 +7826,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A247" t="n">
+        <v>2018</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -8348,10 +7856,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A248" t="n">
+        <v>2018</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -8380,10 +7886,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A249" t="n">
+        <v>2018</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -8412,10 +7916,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A250" t="n">
+        <v>2018</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -8444,10 +7946,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A251" t="n">
+        <v>2018</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -8476,10 +7976,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A252" t="n">
+        <v>2018</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -8495,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -8504,14 +8002,12 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A253" t="n">
+        <v>2018</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -8540,10 +8036,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A254" t="n">
+        <v>2018</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -8552,41 +8046,39 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D254" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" t="n">
-        <v>0</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
       <c r="D255" t="n">
         <v>0</v>
       </c>
@@ -8594,20 +8086,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A256" t="n">
+        <v>2018</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -8636,10 +8126,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A257" t="n">
+        <v>2018</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -8668,10 +8156,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A258" t="n">
+        <v>2018</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -8700,10 +8186,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A259" t="n">
+        <v>2018</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -8732,10 +8216,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A260" t="n">
+        <v>2018</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -8751,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -8760,14 +8242,12 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
+      <c r="A261" t="n">
+        <v>2018</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -8776,68 +8256,64 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>0</v>
-      </c>
-      <c r="E261" t="n">
-        <v>1</v>
-      </c>
-      <c r="F261" t="n">
-        <v>0</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B263" t="inlineStr">
         <is>
           <t>Group H</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>0</v>
-      </c>
-      <c r="E262" t="n">
-        <v>0</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>2018 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
       <c r="C263" t="inlineStr">
         <is>
           <t>Senegal</t>
@@ -8860,10 +8336,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A264" t="n">
+        <v>2022</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -8892,10 +8366,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A265" t="n">
+        <v>2022</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -8924,10 +8396,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A266" t="n">
+        <v>2022</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -8956,10 +8426,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A267" t="n">
+        <v>2022</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -8988,10 +8456,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A268" t="n">
+        <v>2022</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -9004,10 +8470,10 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -9016,14 +8482,12 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A269" t="n">
+        <v>2022</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -9036,7 +8500,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269" t="n">
         <v>1</v>
@@ -9048,14 +8512,12 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A270" t="n">
+        <v>2022</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -9084,10 +8546,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A271" t="n">
+        <v>2022</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -9116,10 +8576,8 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A272" t="n">
+        <v>2022</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -9148,10 +8606,8 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A273" t="n">
+        <v>2022</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -9160,68 +8616,64 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="D273" t="n">
-        <v>0</v>
-      </c>
-      <c r="E273" t="n">
-        <v>1</v>
-      </c>
-      <c r="F273" t="n">
-        <v>0</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B275" t="inlineStr">
         <is>
           <t>Group C</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="D274" t="n">
-        <v>0</v>
-      </c>
-      <c r="E274" t="n">
-        <v>0</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
       <c r="C275" t="inlineStr">
         <is>
           <t>Saudi Arabia</t>
@@ -9244,10 +8696,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A276" t="n">
+        <v>2022</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -9256,100 +8706,94 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="D276" t="n">
-        <v>0</v>
-      </c>
-      <c r="E276" t="n">
-        <v>0</v>
-      </c>
-      <c r="F276" t="n">
-        <v>0</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B278" t="inlineStr">
         <is>
           <t>Group D</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>0</v>
-      </c>
-      <c r="E277" t="n">
-        <v>0</v>
-      </c>
-      <c r="F277" t="n">
-        <v>0</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B279" t="inlineStr">
         <is>
           <t>Group D</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>0</v>
-      </c>
-      <c r="E278" t="n">
-        <v>0</v>
-      </c>
-      <c r="F278" t="n">
-        <v>1</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
       <c r="C279" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -9372,10 +8816,8 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A280" t="n">
+        <v>2022</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -9391,23 +8833,21 @@
         <v>2</v>
       </c>
       <c r="E280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A281" t="n">
+        <v>2022</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -9416,7 +8856,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -9426,20 +8866,18 @@
         <v>2</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A282" t="n">
+        <v>2022</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -9448,30 +8886,28 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D282" t="n">
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F282" t="n">
         <v>3</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H282" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A283" t="n">
+        <v>2022</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -9500,10 +8936,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A284" t="n">
+        <v>2022</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -9532,10 +8966,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A285" t="n">
+        <v>2022</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -9564,10 +8996,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A286" t="n">
+        <v>2022</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -9596,10 +9026,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A287" t="n">
+        <v>2022</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -9628,10 +9056,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A288" t="n">
+        <v>2022</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -9640,100 +9066,94 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="D288" t="n">
-        <v>0</v>
-      </c>
-      <c r="E288" t="n">
-        <v>0</v>
-      </c>
-      <c r="F288" t="n">
-        <v>0</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B290" t="inlineStr">
         <is>
           <t>Group G</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>0</v>
-      </c>
-      <c r="E289" t="n">
-        <v>1</v>
-      </c>
-      <c r="F289" t="n">
-        <v>1</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0</v>
-      </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1</v>
+      </c>
+      <c r="G290" t="n">
+        <v>1</v>
+      </c>
+      <c r="H290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B291" t="inlineStr">
         <is>
           <t>Group G</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>0</v>
-      </c>
-      <c r="E290" t="n">
-        <v>0</v>
-      </c>
-      <c r="F290" t="n">
-        <v>1</v>
-      </c>
-      <c r="G290" t="n">
-        <v>1</v>
-      </c>
-      <c r="H290" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
       <c r="C291" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -9756,10 +9176,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A292" t="n">
+        <v>2022</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -9788,10 +9206,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A293" t="n">
+        <v>2022</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -9820,10 +9236,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A294" t="n">
+        <v>2022</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -9852,10 +9266,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>2022 FIFA World Cup</t>
-        </is>
+      <c r="A295" t="n">
+        <v>2022</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>

--- a/data/out/tb_wc_uefa.xlsx
+++ b/data/out/tb_wc_uefa.xlsx
@@ -2646,23 +2646,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -2676,20 +2676,20 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>4</v>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2770,10 +2770,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2893,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2923,16 +2923,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -3376,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3696,23 +3696,23 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3739,10 +3739,10 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -3823,16 +3823,16 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -3853,16 +3853,16 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4309,10 +4309,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -4339,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -4356,23 +4356,23 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4423,16 +4423,16 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -4453,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -4626,23 +4626,23 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4656,14 +4656,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4903,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4933,16 +4933,16 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5146,13 +5146,13 @@
         <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -5212,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -5496,23 +5496,23 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D169" t="n">
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -5626,10 +5626,10 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
@@ -5686,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -5869,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -5886,20 +5886,20 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>2</v>
@@ -6306,11 +6306,11 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -6336,14 +6336,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D197" t="n">
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -6376,13 +6376,13 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -6409,10 +6409,10 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7030,10 +7030,10 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -7056,23 +7056,23 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D221" t="n">
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -7086,23 +7086,23 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -7176,23 +7176,23 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D225" t="n">
         <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -7206,23 +7206,23 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D226" t="n">
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -7513,16 +7513,16 @@
         <v>2</v>
       </c>
       <c r="E236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -7573,16 +7573,16 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -7993,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -8059,10 +8059,10 @@
         <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -8086,13 +8086,13 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -8256,11 +8256,11 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261" t="n">
         <v>1</v>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -8470,10 +8470,10 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -8500,7 +8500,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269" t="n">
         <v>1</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -8629,10 +8629,10 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -8646,20 +8646,20 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D274" t="n">
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" t="n">
         <v>1</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
         <v>2</v>
@@ -8706,23 +8706,23 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -8736,14 +8736,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D277" t="n">
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278" t="n">
         <v>1</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -8833,16 +8833,16 @@
         <v>2</v>
       </c>
       <c r="E280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -8866,10 +8866,10 @@
         <v>2</v>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281" t="n">
         <v>3</v>
@@ -8886,20 +8886,20 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D282" t="n">
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F282" t="n">
         <v>3</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
         <v>5</v>
@@ -9066,23 +9066,23 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -9106,13 +9106,13 @@
         <v>1</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">

--- a/data/out/tb_wc_uefa.xlsx
+++ b/data/out/tb_wc_uefa.xlsx
@@ -2646,23 +2646,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -2676,20 +2676,20 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>4</v>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2770,10 +2770,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2893,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2923,16 +2923,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3376,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -3696,23 +3696,23 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3739,10 +3739,10 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3823,16 +3823,16 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3853,16 +3853,16 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -4309,10 +4309,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -4339,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -4356,23 +4356,23 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4423,16 +4423,16 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -4453,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -4626,23 +4626,23 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
@@ -4656,14 +4656,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4903,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -4933,16 +4933,16 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -5146,13 +5146,13 @@
         <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -5212,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -5496,23 +5496,23 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="D169" t="n">
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -5626,10 +5626,10 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
@@ -5686,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -5869,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -5886,20 +5886,20 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
         <v>2</v>
@@ -6306,11 +6306,11 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -6336,14 +6336,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D197" t="n">
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -6376,13 +6376,13 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6409,10 +6409,10 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -7030,10 +7030,10 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -7056,23 +7056,23 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="D221" t="n">
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -7086,23 +7086,23 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223">
@@ -7176,23 +7176,23 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D225" t="n">
         <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226">
@@ -7206,23 +7206,23 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D226" t="n">
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -7513,16 +7513,16 @@
         <v>2</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237">
@@ -7573,16 +7573,16 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
@@ -7993,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -8059,10 +8059,10 @@
         <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -8086,13 +8086,13 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -8256,11 +8256,11 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E261" t="n">
         <v>1</v>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -8470,10 +8470,10 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -8500,7 +8500,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269" t="n">
         <v>1</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -8629,10 +8629,10 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -8646,20 +8646,20 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D274" t="n">
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="n">
         <v>1</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" t="n">
         <v>2</v>
@@ -8706,23 +8706,23 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -8736,14 +8736,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D277" t="n">
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" t="n">
         <v>1</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -8833,16 +8833,16 @@
         <v>2</v>
       </c>
       <c r="E280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -8866,10 +8866,10 @@
         <v>2</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>3</v>
@@ -8886,20 +8886,20 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D282" t="n">
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F282" t="n">
         <v>3</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H282" t="n">
         <v>5</v>
@@ -9066,23 +9066,23 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -9106,13 +9106,13 @@
         <v>1</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">

--- a/data/out/tb_wc_uefa.xlsx
+++ b/data/out/tb_wc_uefa.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -526,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -676,13 +676,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -796,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1036,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1246,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1366,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1456,13 +1456,13 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1519,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1576,13 +1576,13 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1663,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1726,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1816,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1849,10 +1849,10 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2116,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2416,13 +2416,13 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2479,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2506,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2563,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>2</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2626,13 +2626,13 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -2659,10 +2659,10 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
@@ -2722,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -2926,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -2959,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -3136,13 +3136,13 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -3169,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3256,13 +3256,13 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3289,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -3343,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -3376,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -3409,10 +3409,10 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3499,10 +3499,10 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -3526,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
         <v>2</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
@@ -3616,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -3649,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3706,13 +3706,13 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -3769,10 +3769,10 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3826,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -3889,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3979,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -4006,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -4066,13 +4066,13 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -4129,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4216,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4249,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -4339,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -4366,13 +4366,13 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -4426,13 +4426,13 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -4576,13 +4576,13 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -4609,10 +4609,10 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -4633,7 +4633,7 @@
         <v>3</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
         <v>2</v>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" t="n">
         <v>3</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -4696,13 +4696,13 @@
         <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -4750,7 +4750,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4816,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -4849,10 +4849,10 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -4936,13 +4936,13 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -4969,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -5026,13 +5026,13 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -5089,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F157" t="n">
         <v>3</v>
@@ -5152,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -5176,13 +5176,13 @@
         <v>2</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -5209,10 +5209,10 @@
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -5266,13 +5266,13 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -5329,10 +5329,10 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -5350,7 +5350,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5416,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -5449,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -5509,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -5566,13 +5566,13 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -5656,13 +5656,13 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -5689,10 +5689,10 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -5746,13 +5746,13 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -5809,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -5869,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -5926,13 +5926,13 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5986,13 +5986,13 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6049,10 +6049,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -6109,10 +6109,10 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -6136,13 +6136,13 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -6256,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -6289,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -6313,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -6340,7 +6340,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -6376,13 +6376,13 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -6409,10 +6409,10 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -6496,13 +6496,13 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -6529,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -6619,10 +6619,10 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -6646,13 +6646,13 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -6709,10 +6709,10 @@
         <v>2</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F210" t="n">
         <v>2</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
@@ -6766,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -6826,13 +6826,13 @@
         <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -6889,10 +6889,10 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -6946,13 +6946,13 @@
         <v>1</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7009,10 +7009,10 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -7066,13 +7066,13 @@
         <v>2</v>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
@@ -7093,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F222" t="n">
         <v>2</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
@@ -7129,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -7189,10 +7189,10 @@
         <v>2</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F226" t="n">
         <v>2</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227">
@@ -7246,13 +7246,13 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228" t="n">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -7336,13 +7336,13 @@
         <v>1</v>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -7369,10 +7369,10 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -7459,10 +7459,10 @@
         <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -7486,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -7513,7 +7513,7 @@
         <v>2</v>
       </c>
       <c r="E236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F236" t="n">
         <v>2</v>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237" t="n">
         <v>2</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
@@ -7579,10 +7579,10 @@
         <v>2</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
@@ -7606,13 +7606,13 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -7633,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" t="n">
         <v>1</v>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -7699,10 +7699,10 @@
         <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -7726,13 +7726,13 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -7789,10 +7789,10 @@
         <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246">
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F246" t="n">
         <v>2</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247">
@@ -7846,13 +7846,13 @@
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
       </c>
       <c r="H247" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
@@ -7870,7 +7870,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -7936,13 +7936,13 @@
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -7969,10 +7969,10 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
         <v>1</v>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -8059,10 +8059,10 @@
         <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255" t="n">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -8176,13 +8176,13 @@
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -8209,10 +8209,10 @@
         <v>1</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -8269,10 +8269,10 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262" t="n">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -8326,13 +8326,13 @@
         <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -8386,13 +8386,13 @@
         <v>2</v>
       </c>
       <c r="F265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
         <v>2</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267">
@@ -8449,10 +8449,10 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E268" t="n">
         <v>1</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -8536,13 +8536,13 @@
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G270" t="n">
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -8593,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -8629,10 +8629,10 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -8686,13 +8686,13 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276">
@@ -8713,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276" t="n">
         <v>1</v>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E277" t="n">
         <v>1</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -8779,10 +8779,10 @@
         <v>1</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -8806,13 +8806,13 @@
         <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -8833,7 +8833,7 @@
         <v>2</v>
       </c>
       <c r="E280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F280" t="n">
         <v>2</v>
@@ -8842,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282">
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282" t="n">
         <v>2</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283">
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
       </c>
       <c r="H283" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284">
@@ -8953,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -8980,7 +8980,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" t="n">
         <v>1</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -9016,13 +9016,13 @@
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -9049,10 +9049,10 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -9073,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F288" t="n">
         <v>1</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289">
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" t="n">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -9136,13 +9136,13 @@
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -9169,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -9190,7 +9190,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292" t="n">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -9226,13 +9226,13 @@
         <v>1</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -9259,10 +9259,10 @@
         <v>2</v>
       </c>
       <c r="G294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295">
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F295" t="n">
         <v>1</v>
@@ -9292,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
